--- a/Basi di dati NoSQL grafici.xlsx
+++ b/Basi di dati NoSQL grafici.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siakoo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siakoo\Desktop\Compose\NoSQL-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B40FBF-CD08-4E2A-82D6-ADEBD3346E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3148AE59-1E3B-4A09-9683-17AB36FE3E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20370" yWindow="7470" windowWidth="21600" windowHeight="11295" xr2:uid="{AE4842CC-3086-4008-B37B-E79F53787F21}"/>
+    <workbookView xWindow="4920" yWindow="3315" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{AE4842CC-3086-4008-B37B-E79F53787F21}"/>
   </bookViews>
   <sheets>
-    <sheet name="Prima query" sheetId="10" r:id="rId1"/>
-    <sheet name="Seconda query" sheetId="9" r:id="rId2"/>
-    <sheet name="Terza query" sheetId="8" r:id="rId3"/>
-    <sheet name="Quarta query" sheetId="7" r:id="rId4"/>
+    <sheet name="Quarta query" sheetId="13" r:id="rId1"/>
+    <sheet name="Terza query" sheetId="12" r:id="rId2"/>
+    <sheet name="Seconda query" sheetId="11" r:id="rId3"/>
+    <sheet name="Prima query" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -208,17 +208,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -237,8 +239,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -359,21 +362,21 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Prima query'!$M$7:$P$7</c:f>
+                <c:f>'Quarta query'!$M$7:$P$7</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.2352561630829659</c:v>
+                    <c:v>0.10735164862302939</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6.2476673750751344</c:v>
+                    <c:v>0.15134885751648883</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>9.670626989552515</c:v>
+                    <c:v>0.20967441918139412</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.6104583142301454</c:v>
+                    <c:v>2.1519641601274579</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -403,43 +406,49 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>'Prima query'!$S$3:$T$3</c:f>
+              <c:f>'Quarta query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>187250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>280875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>374500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Prima query'!$M$5:$P$5</c:f>
+              <c:f>'Quarta query'!$M$5:$P$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.9666666666666668</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.033333333333335</c:v>
+                  <c:v>1.2333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.333333333333332</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.933333333333334</c:v>
+                  <c:v>3.6333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5395-4409-8783-DF5546FE9AA8}"/>
+              <c16:uniqueId val="{00000000-4D7E-4174-88DF-E2EE29413CB9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -459,30 +468,51 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>'Prima query'!$M$6:$P$6</c:f>
+              <c:f>'Quarta query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.65743609744386744</c:v>
+                  <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.459445072001063</c:v>
+                  <c:v>187250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.025091221965479</c:v>
+                  <c:v>280875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.473284012925863</c:v>
+                  <c:v>374500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Quarta query'!$M$6:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42295258468165065</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58594652770823152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0137804711807989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5395-4409-8783-DF5546FE9AA8}"/>
+              <c16:uniqueId val="{00000001-4D7E-4174-88DF-E2EE29413CB9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -502,30 +532,51 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>'Prima query'!$M$7:$P$7</c:f>
+              <c:f>'Quarta query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.2352561630829659</c:v>
+                  <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2476673750751344</c:v>
+                  <c:v>187250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.670626989552515</c:v>
+                  <c:v>280875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6104583142301454</c:v>
+                  <c:v>374500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Quarta query'!$M$7:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.10735164862302939</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15134885751648883</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20967441918139412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1519641601274579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5395-4409-8783-DF5546FE9AA8}"/>
+              <c16:uniqueId val="{00000002-4D7E-4174-88DF-E2EE29413CB9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -895,49 +946,49 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Terza query'!$S$3:$V$3</c:f>
+              <c:f>'Seconda query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>395000</c:v>
+                  <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>296250</c:v>
+                  <c:v>187250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>197500</c:v>
+                  <c:v>280875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98750</c:v>
+                  <c:v>374500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Terza query'!$M$4:$P$4</c:f>
+              <c:f>'Seconda query'!$M$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CC7B-44B8-8C09-2653FD613F7E}"/>
+              <c16:uniqueId val="{00000000-2131-4390-8EEE-3AAACD70A592}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1017,49 +1068,49 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Terza query'!$S$3:$V$3</c:f>
+              <c:f>'Seconda query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>395000</c:v>
+                  <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>296250</c:v>
+                  <c:v>187250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>197500</c:v>
+                  <c:v>280875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98750</c:v>
+                  <c:v>374500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Terza query'!$S$4:$V$4</c:f>
+              <c:f>'Seconda query'!$S$4:$V$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CC7B-44B8-8C09-2653FD613F7E}"/>
+              <c16:uniqueId val="{00000001-2131-4390-8EEE-3AAACD70A592}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1365,21 +1416,21 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Terza query'!$S$7:$V$7</c:f>
+                <c:f>'Seconda query'!$S$7:$V$7</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.33758447586827683</c:v>
+                    <c:v>0.16398235193111135</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.32796470386222265</c:v>
+                    <c:v>0.15134885751648883</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.32991109901456811</c:v>
+                    <c:v>0.19994906097739629</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.29915173891674296</c:v>
+                    <c:v>0.27304350637213415</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1409,49 +1460,49 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>'Terza query'!$S$3:$V$3</c:f>
+              <c:f>'Seconda query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>395000</c:v>
+                  <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>296250</c:v>
+                  <c:v>187250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>197500</c:v>
+                  <c:v>280875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98750</c:v>
+                  <c:v>374500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Terza query'!$S$5:$V$5</c:f>
+              <c:f>'Seconda query'!$S$5:$V$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>15.1</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.4</c:v>
+                  <c:v>1.2333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.5</c:v>
+                  <c:v>2.5666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.633333333333333</c:v>
+                  <c:v>2.1333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-469A-4551-A942-3B38C8EC1448}"/>
+              <c16:uniqueId val="{00000000-7F44-4D2A-9AE5-A224502D2B3B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1471,30 +1522,51 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>'Terza query'!$S$6:$V$6</c:f>
+              <c:f>'Seconda query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.94339811320566114</c:v>
+                  <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91651513899116788</c:v>
+                  <c:v>187250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92195444572928875</c:v>
+                  <c:v>280875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83599574693229639</c:v>
+                  <c:v>374500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Seconda query'!$S$6:$V$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.45825756949558399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42295258468165065</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55876848714134031</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76303487615063981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-469A-4551-A942-3B38C8EC1448}"/>
+              <c16:uniqueId val="{00000001-7F44-4D2A-9AE5-A224502D2B3B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1514,30 +1586,51 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>'Terza query'!$S$7:$V$7</c:f>
+              <c:f>'Seconda query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.33758447586827683</c:v>
+                  <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32796470386222265</c:v>
+                  <c:v>187250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32991109901456811</c:v>
+                  <c:v>280875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29915173891674296</c:v>
+                  <c:v>374500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Seconda query'!$S$7:$V$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.16398235193111135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15134885751648883</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19994906097739629</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27304350637213415</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-469A-4551-A942-3B38C8EC1448}"/>
+              <c16:uniqueId val="{00000002-7F44-4D2A-9AE5-A224502D2B3B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1858,21 +1951,21 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Terza query'!$M$7:$P$7</c:f>
+                <c:f>'Seconda query'!$M$7:$P$7</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>8.4018917809679117</c:v>
+                    <c:v>0.17732188761865944</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.9621618764424138</c:v>
+                    <c:v>0.12846807114502382</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.14559931881752344</c:v>
+                    <c:v>0.2602373844133683</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>22.027943935593779</c:v>
+                    <c:v>1.0042889797319967</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1902,49 +1995,49 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>'Terza query'!$S$3:$V$3</c:f>
+              <c:f>'Seconda query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>395000</c:v>
+                  <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>296250</c:v>
+                  <c:v>187250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>197500</c:v>
+                  <c:v>280875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98750</c:v>
+                  <c:v>374500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Terza query'!$M$5:$P$5</c:f>
+              <c:f>'Seconda query'!$M$5:$P$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>11.666666666666666</c:v>
+                  <c:v>1.7666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.2</c:v>
+                  <c:v>2.0666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.033333333333333</c:v>
+                  <c:v>4.7333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.666666666666664</c:v>
+                  <c:v>3.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5701-478F-8941-B65F57D6441B}"/>
+              <c16:uniqueId val="{00000000-159B-431F-BBE9-856A4BC87BFC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1970,21 +2063,21 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Terza query'!$S$7:$V$7</c:f>
+                <c:f>'Seconda query'!$S$7:$V$7</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.33758447586827683</c:v>
+                    <c:v>0.16398235193111135</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.32796470386222265</c:v>
+                    <c:v>0.15134885751648883</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.32991109901456811</c:v>
+                    <c:v>0.19994906097739629</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.29915173891674296</c:v>
+                    <c:v>0.27304350637213415</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2014,49 +2107,49 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>'Terza query'!$S$3:$V$3</c:f>
+              <c:f>'Seconda query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>395000</c:v>
+                  <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>296250</c:v>
+                  <c:v>187250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>197500</c:v>
+                  <c:v>280875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98750</c:v>
+                  <c:v>374500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Terza query'!$S$5:$V$5</c:f>
+              <c:f>'Seconda query'!$S$5:$V$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>15.1</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.4</c:v>
+                  <c:v>1.2333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.5</c:v>
+                  <c:v>2.5666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.633333333333333</c:v>
+                  <c:v>2.1333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5701-478F-8941-B65F57D6441B}"/>
+              <c16:uniqueId val="{00000001-159B-431F-BBE9-856A4BC87BFC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2408,21 +2501,21 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Quarta query'!$M$7:$P$7</c:f>
+                <c:f>'Prima query'!$M$7:$P$7</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>8.4018917809679117</c:v>
+                    <c:v>0.15824228404829396</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.9621618764424138</c:v>
+                    <c:v>0.17852137291231937</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.14559931881752344</c:v>
+                    <c:v>0.25274896127505075</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>22.027943935593779</c:v>
+                    <c:v>0.47726751454703026</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2452,49 +2545,49 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>'Quarta query'!$S$3:$V$3</c:f>
+              <c:f>'Prima query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>395000</c:v>
+                  <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>296250</c:v>
+                  <c:v>187250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>197500</c:v>
+                  <c:v>280875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98750</c:v>
+                  <c:v>374500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Quarta query'!$M$5:$P$5</c:f>
+              <c:f>'Prima query'!$M$5:$P$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>11.666666666666666</c:v>
+                  <c:v>1.2666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.2</c:v>
+                  <c:v>1.5333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.033333333333333</c:v>
+                  <c:v>3.3666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.666666666666664</c:v>
+                  <c:v>2.2333333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6C95-4AED-99FD-91144CE63AC1}"/>
+              <c16:uniqueId val="{00000000-5395-4409-8783-DF5546FE9AA8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2514,30 +2607,51 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>'Quarta query'!$M$6:$P$6</c:f>
+              <c:f>'Prima query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>23.479541922467074</c:v>
+                  <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.250692873106971</c:v>
+                  <c:v>187250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40688518719112349</c:v>
+                  <c:v>280875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61.558283132509651</c:v>
+                  <c:v>374500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Prima query'!$M$6:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.44221663871405331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49888765156985887</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70632067001390297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3337499349161706</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6C95-4AED-99FD-91144CE63AC1}"/>
+              <c16:uniqueId val="{00000001-5395-4409-8783-DF5546FE9AA8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2557,30 +2671,51 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>'Quarta query'!$M$7:$P$7</c:f>
+              <c:f>'Prima query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.4018917809679117</c:v>
+                  <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9621618764424138</c:v>
+                  <c:v>187250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14559931881752344</c:v>
+                  <c:v>280875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.027943935593779</c:v>
+                  <c:v>374500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Prima query'!$M$7:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.15824228404829396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17852137291231937</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25274896127505075</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47726751454703026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6C95-4AED-99FD-91144CE63AC1}"/>
+              <c16:uniqueId val="{00000002-5395-4409-8783-DF5546FE9AA8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2950,49 +3085,49 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Quarta query'!$S$3:$V$3</c:f>
+              <c:f>'Prima query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>395000</c:v>
+                  <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>296250</c:v>
+                  <c:v>187250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>197500</c:v>
+                  <c:v>280875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98750</c:v>
+                  <c:v>374500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Quarta query'!$M$4:$P$4</c:f>
+              <c:f>'Prima query'!$M$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BAF1-4977-AEAC-560856EFD16A}"/>
+              <c16:uniqueId val="{00000000-7101-44FF-BE42-165EE41113F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3072,49 +3207,49 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Quarta query'!$S$3:$V$3</c:f>
+              <c:f>'Prima query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>395000</c:v>
+                  <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>296250</c:v>
+                  <c:v>187250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>197500</c:v>
+                  <c:v>280875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98750</c:v>
+                  <c:v>374500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Quarta query'!$S$4:$V$4</c:f>
+              <c:f>'Prima query'!$S$4:$V$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>51</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>48</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BAF1-4977-AEAC-560856EFD16A}"/>
+              <c16:uniqueId val="{00000001-7101-44FF-BE42-165EE41113F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3420,21 +3555,21 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Quarta query'!$S$7:$V$7</c:f>
+                <c:f>'Prima query'!$S$7:$V$7</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.33758447586827683</c:v>
+                    <c:v>0.16398235193111135</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.32796470386222265</c:v>
+                    <c:v>0.15824228404829396</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.32991109901456811</c:v>
+                    <c:v>0.31580952025774794</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.29915173891674296</c:v>
+                    <c:v>0.3110431670692102</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3464,49 +3599,49 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>'Quarta query'!$S$3:$V$3</c:f>
+              <c:f>'Prima query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>395000</c:v>
+                  <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>296250</c:v>
+                  <c:v>187250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>197500</c:v>
+                  <c:v>280875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98750</c:v>
+                  <c:v>374500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Quarta query'!$S$5:$V$5</c:f>
+              <c:f>'Prima query'!$S$5:$V$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>15.1</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.4</c:v>
+                  <c:v>1.2666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.5</c:v>
+                  <c:v>2.7666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.633333333333333</c:v>
+                  <c:v>2.3333333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E298-44C1-B6C7-EB45A81FC354}"/>
+              <c16:uniqueId val="{00000000-F73D-434D-9B30-504298B83A84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3526,30 +3661,51 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>'Quarta query'!$S$6:$V$6</c:f>
+              <c:f>'Prima query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.94339811320566114</c:v>
+                  <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91651513899116788</c:v>
+                  <c:v>187250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92195444572928875</c:v>
+                  <c:v>280875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83599574693229639</c:v>
+                  <c:v>374500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Prima query'!$S$6:$V$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.45825756949558399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44221663871405331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88254681965824844</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8692269873603532</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E298-44C1-B6C7-EB45A81FC354}"/>
+              <c16:uniqueId val="{00000001-F73D-434D-9B30-504298B83A84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3569,30 +3725,51 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>'Quarta query'!$S$7:$V$7</c:f>
+              <c:f>'Prima query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.33758447586827683</c:v>
+                  <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32796470386222265</c:v>
+                  <c:v>187250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32991109901456811</c:v>
+                  <c:v>280875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29915173891674296</c:v>
+                  <c:v>374500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Prima query'!$S$7:$V$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.16398235193111135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15824228404829396</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31580952025774794</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3110431670692102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E298-44C1-B6C7-EB45A81FC354}"/>
+              <c16:uniqueId val="{00000002-F73D-434D-9B30-504298B83A84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3839,7 +4016,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> Times</a:t>
+              <a:t> Time</a:t>
             </a:r>
             <a:endParaRPr lang="it-IT"/>
           </a:p>
@@ -3913,21 +4090,21 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Quarta query'!$M$7:$P$7</c:f>
+                <c:f>'Prima query'!$M$7:$P$7</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>8.4018917809679117</c:v>
+                    <c:v>0.15824228404829396</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.9621618764424138</c:v>
+                    <c:v>0.17852137291231937</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.14559931881752344</c:v>
+                    <c:v>0.25274896127505075</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>22.027943935593779</c:v>
+                    <c:v>0.47726751454703026</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3957,49 +4134,49 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>'Quarta query'!$S$3:$V$3</c:f>
+              <c:f>'Prima query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>395000</c:v>
+                  <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>296250</c:v>
+                  <c:v>187250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>197500</c:v>
+                  <c:v>280875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98750</c:v>
+                  <c:v>374500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Quarta query'!$M$5:$P$5</c:f>
+              <c:f>'Prima query'!$M$5:$P$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>11.666666666666666</c:v>
+                  <c:v>1.2666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.2</c:v>
+                  <c:v>1.5333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.033333333333333</c:v>
+                  <c:v>3.3666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.666666666666664</c:v>
+                  <c:v>2.2333333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F533-46DE-8C9A-839FEBAC81EA}"/>
+              <c16:uniqueId val="{00000000-4FB7-42F9-929A-6377920E6779}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4025,21 +4202,21 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Quarta query'!$S$7:$V$7</c:f>
+                <c:f>'Prima query'!$S$7:$V$7</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.33758447586827683</c:v>
+                    <c:v>0.16398235193111135</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.32796470386222265</c:v>
+                    <c:v>0.15824228404829396</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.32991109901456811</c:v>
+                    <c:v>0.31580952025774794</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.29915173891674296</c:v>
+                    <c:v>0.3110431670692102</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4069,49 +4246,49 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>'Quarta query'!$S$3:$V$3</c:f>
+              <c:f>'Prima query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>395000</c:v>
+                  <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>296250</c:v>
+                  <c:v>187250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>197500</c:v>
+                  <c:v>280875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98750</c:v>
+                  <c:v>374500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Quarta query'!$S$5:$V$5</c:f>
+              <c:f>'Prima query'!$S$5:$V$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>15.1</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.4</c:v>
+                  <c:v>1.2666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.5</c:v>
+                  <c:v>2.7666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.633333333333333</c:v>
+                  <c:v>2.3333333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F533-46DE-8C9A-839FEBAC81EA}"/>
+              <c16:uniqueId val="{00000001-4FB7-42F9-929A-6377920E6779}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4522,43 +4699,49 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Prima query'!$S$3:$T$3</c:f>
+              <c:f>'Quarta query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>187250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>280875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>374500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Prima query'!$M$4:$P$4</c:f>
+              <c:f>'Quarta query'!$M$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7101-44FF-BE42-165EE41113F3}"/>
+              <c16:uniqueId val="{00000000-9AA7-49EB-A118-0E64010C8F2D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4638,43 +4821,49 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Prima query'!$S$3:$T$3</c:f>
+              <c:f>'Quarta query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>187250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>280875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>374500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Prima query'!$S$4:$V$4</c:f>
+              <c:f>'Quarta query'!$S$4:$V$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7101-44FF-BE42-165EE41113F3}"/>
+              <c16:uniqueId val="{00000001-9AA7-49EB-A118-0E64010C8F2D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4980,21 +5169,21 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Prima query'!$S$7:$V$7</c:f>
+                <c:f>'Quarta query'!$S$7:$V$7</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.33758447586827683</c:v>
+                    <c:v>0.26910706527832956</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.32796470386222265</c:v>
+                    <c:v>0.2202639374542292</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.32991109901456811</c:v>
+                    <c:v>0.46869449969319732</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.29915173891674296</c:v>
+                    <c:v>0.64499283922839923</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5024,43 +5213,49 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>'Prima query'!$S$3:$T$3</c:f>
+              <c:f>'Quarta query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>187250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>280875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>374500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Prima query'!$S$5:$V$5</c:f>
+              <c:f>'Quarta query'!$S$5:$V$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>15.1</c:v>
+                  <c:v>3.3666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.4</c:v>
+                  <c:v>3.2333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.5</c:v>
+                  <c:v>6.1333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.633333333333333</c:v>
+                  <c:v>5.1333333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F73D-434D-9B30-504298B83A84}"/>
+              <c16:uniqueId val="{00000000-E791-4F6D-8F00-004CFD98F6CC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5080,30 +5275,51 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>'Prima query'!$S$6:$V$6</c:f>
+              <c:f>'Quarta query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.94339811320566114</c:v>
+                  <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91651513899116788</c:v>
+                  <c:v>187250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92195444572928875</c:v>
+                  <c:v>280875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83599574693229639</c:v>
+                  <c:v>374500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Quarta query'!$S$6:$V$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.75203427817856516</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61553951042064625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3097921802925667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.80246744461277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F73D-434D-9B30-504298B83A84}"/>
+              <c16:uniqueId val="{00000001-E791-4F6D-8F00-004CFD98F6CC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5123,30 +5339,51 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>'Prima query'!$S$7:$V$7</c:f>
+              <c:f>'Quarta query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.33758447586827683</c:v>
+                  <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32796470386222265</c:v>
+                  <c:v>187250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32991109901456811</c:v>
+                  <c:v>280875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29915173891674296</c:v>
+                  <c:v>374500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Quarta query'!$S$7:$V$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.26910706527832956</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2202639374542292</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46869449969319732</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64499283922839923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F73D-434D-9B30-504298B83A84}"/>
+              <c16:uniqueId val="{00000002-E791-4F6D-8F00-004CFD98F6CC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5467,21 +5704,21 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Prima query'!$M$7:$P$7</c:f>
+                <c:f>'Quarta query'!$M$7:$P$7</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.2352561630829659</c:v>
+                    <c:v>0.10735164862302939</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6.2476673750751344</c:v>
+                    <c:v>0.15134885751648883</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>9.670626989552515</c:v>
+                    <c:v>0.20967441918139412</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.6104583142301454</c:v>
+                    <c:v>2.1519641601274579</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5511,43 +5748,49 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>'Prima query'!$S$3:$T$3</c:f>
+              <c:f>'Quarta query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>187250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>280875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>374500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Prima query'!$M$5:$P$5</c:f>
+              <c:f>'Quarta query'!$M$5:$P$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.9666666666666668</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.033333333333335</c:v>
+                  <c:v>1.2333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.333333333333332</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.933333333333334</c:v>
+                  <c:v>3.6333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4FB7-42F9-929A-6377920E6779}"/>
+              <c16:uniqueId val="{00000000-B6DF-479C-8CC3-5080FD8B34F7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5573,21 +5816,21 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Prima query'!$S$7:$V$7</c:f>
+                <c:f>'Quarta query'!$S$7:$V$7</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.33758447586827683</c:v>
+                    <c:v>0.26910706527832956</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.32796470386222265</c:v>
+                    <c:v>0.2202639374542292</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.32991109901456811</c:v>
+                    <c:v>0.46869449969319732</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.29915173891674296</c:v>
+                    <c:v>0.64499283922839923</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5617,43 +5860,49 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>'Prima query'!$S$3:$T$3</c:f>
+              <c:f>'Quarta query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>187250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>280875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>374500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Prima query'!$S$5:$V$5</c:f>
+              <c:f>'Quarta query'!$S$5:$V$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>15.1</c:v>
+                  <c:v>3.3666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.4</c:v>
+                  <c:v>3.2333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.5</c:v>
+                  <c:v>6.1333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.633333333333333</c:v>
+                  <c:v>5.1333333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4FB7-42F9-929A-6377920E6779}"/>
+              <c16:uniqueId val="{00000001-B6DF-479C-8CC3-5080FD8B34F7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6005,21 +6254,21 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Seconda query'!$M$7:$P$7</c:f>
+                <c:f>'Terza query'!$M$7:$P$7</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>8.4018917809679117</c:v>
+                    <c:v>1.5202419042809208</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.9621618764424138</c:v>
+                    <c:v>2.6655990568745636</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.14559931881752344</c:v>
+                    <c:v>10.208334778700287</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>22.027943935593779</c:v>
+                    <c:v>57.001747374662187</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6049,49 +6298,49 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>'Seconda query'!$S$3:$V$3</c:f>
+              <c:f>'Terza query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>395000</c:v>
+                  <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>296250</c:v>
+                  <c:v>187250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>197500</c:v>
+                  <c:v>280875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98750</c:v>
+                  <c:v>374500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Seconda query'!$M$5:$P$5</c:f>
+              <c:f>'Terza query'!$M$5:$P$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>11.666666666666666</c:v>
+                  <c:v>37.533333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.2</c:v>
+                  <c:v>69.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.033333333333333</c:v>
+                  <c:v>295.36666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.666666666666664</c:v>
+                  <c:v>254.73333333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D6DF-44FA-87BC-CD597CE64929}"/>
+              <c16:uniqueId val="{00000000-54FA-47EF-BA1F-466AD30E6973}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6111,30 +6360,51 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>'Seconda query'!$M$6:$P$6</c:f>
+              <c:f>'Terza query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>23.479541922467074</c:v>
+                  <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.250692873106971</c:v>
+                  <c:v>187250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40688518719112349</c:v>
+                  <c:v>280875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61.558283132509651</c:v>
+                  <c:v>374500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Terza query'!$M$6:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.2483983910279521</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4491610265854771</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.527744779814302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>159.29447224837682</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D6DF-44FA-87BC-CD597CE64929}"/>
+              <c16:uniqueId val="{00000001-54FA-47EF-BA1F-466AD30E6973}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6154,30 +6424,51 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>'Seconda query'!$M$7:$P$7</c:f>
+              <c:f>'Terza query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.4018917809679117</c:v>
+                  <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9621618764424138</c:v>
+                  <c:v>187250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14559931881752344</c:v>
+                  <c:v>280875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.027943935593779</c:v>
+                  <c:v>374500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Terza query'!$M$7:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.5202419042809208</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6655990568745636</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.208334778700287</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.001747374662187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D6DF-44FA-87BC-CD597CE64929}"/>
+              <c16:uniqueId val="{00000002-54FA-47EF-BA1F-466AD30E6973}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6547,49 +6838,49 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Seconda query'!$S$3:$V$3</c:f>
+              <c:f>'Terza query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>395000</c:v>
+                  <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>296250</c:v>
+                  <c:v>187250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>197500</c:v>
+                  <c:v>280875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98750</c:v>
+                  <c:v>374500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Seconda query'!$M$4:$P$4</c:f>
+              <c:f>'Terza query'!$M$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-00D0-4B24-8BB7-3A271FDDFDAC}"/>
+              <c16:uniqueId val="{00000000-0113-416B-AB30-E22109C6757A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6669,49 +6960,49 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Seconda query'!$S$3:$V$3</c:f>
+              <c:f>'Terza query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>395000</c:v>
+                  <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>296250</c:v>
+                  <c:v>187250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>197500</c:v>
+                  <c:v>280875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98750</c:v>
+                  <c:v>374500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Seconda query'!$S$4:$V$4</c:f>
+              <c:f>'Terza query'!$S$4:$V$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-00D0-4B24-8BB7-3A271FDDFDAC}"/>
+              <c16:uniqueId val="{00000001-0113-416B-AB30-E22109C6757A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7017,21 +7308,21 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Seconda query'!$S$7:$V$7</c:f>
+                <c:f>'Terza query'!$S$7:$V$7</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.33758447586827683</c:v>
+                    <c:v>0.17244053119039293</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.32796470386222265</c:v>
+                    <c:v>0.15134885751648883</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.32991109901456811</c:v>
+                    <c:v>0.32447561840228095</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.29915173891674296</c:v>
+                    <c:v>0.23525616308296587</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -7061,49 +7352,49 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>'Seconda query'!$S$3:$V$3</c:f>
+              <c:f>'Terza query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>395000</c:v>
+                  <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>296250</c:v>
+                  <c:v>187250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>197500</c:v>
+                  <c:v>280875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98750</c:v>
+                  <c:v>374500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Seconda query'!$S$5:$V$5</c:f>
+              <c:f>'Terza query'!$S$5:$V$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>15.1</c:v>
+                  <c:v>1.3666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.4</c:v>
+                  <c:v>1.2333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.5</c:v>
+                  <c:v>2.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.633333333333333</c:v>
+                  <c:v>1.9666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E97E-49FC-B2A5-5F46F5149B2F}"/>
+              <c16:uniqueId val="{00000000-5918-4535-84C1-4BE8A2F3CDD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7123,30 +7414,51 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>'Seconda query'!$S$6:$V$6</c:f>
+              <c:f>'Terza query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.94339811320566114</c:v>
+                  <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91651513899116788</c:v>
+                  <c:v>187250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92195444572928875</c:v>
+                  <c:v>280875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83599574693229639</c:v>
+                  <c:v>374500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Terza query'!$S$6:$V$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.48189440982669868</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42295258468165065</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90676470058236291</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65743609744386733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E97E-49FC-B2A5-5F46F5149B2F}"/>
+              <c16:uniqueId val="{00000001-5918-4535-84C1-4BE8A2F3CDD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7166,30 +7478,51 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>'Seconda query'!$S$7:$V$7</c:f>
+              <c:f>'Terza query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.33758447586827683</c:v>
+                  <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32796470386222265</c:v>
+                  <c:v>187250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32991109901456811</c:v>
+                  <c:v>280875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29915173891674296</c:v>
+                  <c:v>374500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Terza query'!$S$7:$V$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.17244053119039293</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15134885751648883</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32447561840228095</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23525616308296587</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E97E-49FC-B2A5-5F46F5149B2F}"/>
+              <c16:uniqueId val="{00000002-5918-4535-84C1-4BE8A2F3CDD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7510,21 +7843,21 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Seconda query'!$M$7:$P$7</c:f>
+                <c:f>'Terza query'!$M$7:$P$7</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>8.4018917809679117</c:v>
+                    <c:v>1.5202419042809208</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.9621618764424138</c:v>
+                    <c:v>2.6655990568745636</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.14559931881752344</c:v>
+                    <c:v>10.208334778700287</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>22.027943935593779</c:v>
+                    <c:v>57.001747374662187</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -7554,49 +7887,49 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>'Seconda query'!$S$3:$V$3</c:f>
+              <c:f>'Terza query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>395000</c:v>
+                  <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>296250</c:v>
+                  <c:v>187250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>197500</c:v>
+                  <c:v>280875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98750</c:v>
+                  <c:v>374500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Seconda query'!$M$5:$P$5</c:f>
+              <c:f>'Terza query'!$M$5:$P$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>11.666666666666666</c:v>
+                  <c:v>37.533333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.2</c:v>
+                  <c:v>69.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.033333333333333</c:v>
+                  <c:v>295.36666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.666666666666664</c:v>
+                  <c:v>254.73333333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-40FF-441A-B8A4-A7F4248FD00D}"/>
+              <c16:uniqueId val="{00000000-54D5-4653-9A2A-515E7F153EE3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7622,21 +7955,21 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Seconda query'!$S$7:$V$7</c:f>
+                <c:f>'Terza query'!$S$7:$V$7</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.33758447586827683</c:v>
+                    <c:v>0.17244053119039293</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.32796470386222265</c:v>
+                    <c:v>0.15134885751648883</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.32991109901456811</c:v>
+                    <c:v>0.32447561840228095</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.29915173891674296</c:v>
+                    <c:v>0.23525616308296587</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -7666,49 +7999,49 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>'Seconda query'!$S$3:$V$3</c:f>
+              <c:f>'Terza query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>395000</c:v>
+                  <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>296250</c:v>
+                  <c:v>187250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>197500</c:v>
+                  <c:v>280875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98750</c:v>
+                  <c:v>374500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Seconda query'!$S$5:$V$5</c:f>
+              <c:f>'Terza query'!$S$5:$V$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>15.1</c:v>
+                  <c:v>1.3666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.4</c:v>
+                  <c:v>1.2333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.5</c:v>
+                  <c:v>2.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.633333333333333</c:v>
+                  <c:v>1.9666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-40FF-441A-B8A4-A7F4248FD00D}"/>
+              <c16:uniqueId val="{00000001-54D5-4653-9A2A-515E7F153EE3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8060,21 +8393,21 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Terza query'!$M$7:$P$7</c:f>
+                <c:f>'Seconda query'!$M$7:$P$7</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>8.4018917809679117</c:v>
+                    <c:v>0.17732188761865944</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.9621618764424138</c:v>
+                    <c:v>0.12846807114502382</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.14559931881752344</c:v>
+                    <c:v>0.2602373844133683</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>22.027943935593779</c:v>
+                    <c:v>1.0042889797319967</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -8104,49 +8437,49 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>'Terza query'!$S$3:$V$3</c:f>
+              <c:f>'Seconda query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>395000</c:v>
+                  <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>296250</c:v>
+                  <c:v>187250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>197500</c:v>
+                  <c:v>280875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98750</c:v>
+                  <c:v>374500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Terza query'!$M$5:$P$5</c:f>
+              <c:f>'Seconda query'!$M$5:$P$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>11.666666666666666</c:v>
+                  <c:v>1.7666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.2</c:v>
+                  <c:v>2.0666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.033333333333333</c:v>
+                  <c:v>4.7333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.666666666666664</c:v>
+                  <c:v>3.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DC7C-4A77-B622-B8248E95FA0C}"/>
+              <c16:uniqueId val="{00000000-421F-4A61-8DE2-99F5D5953340}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8166,30 +8499,51 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>'Terza query'!$M$6:$P$6</c:f>
+              <c:f>'Seconda query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>23.479541922467074</c:v>
+                  <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.250692873106971</c:v>
+                  <c:v>187250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40688518719112349</c:v>
+                  <c:v>280875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61.558283132509651</c:v>
+                  <c:v>374500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Seconda query'!$M$6:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.49553562491061687</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35901098714230029</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72724747430904757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8065399813055696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DC7C-4A77-B622-B8248E95FA0C}"/>
+              <c16:uniqueId val="{00000001-421F-4A61-8DE2-99F5D5953340}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8209,30 +8563,51 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>'Terza query'!$M$7:$P$7</c:f>
+              <c:f>'Seconda query'!$S$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.4018917809679117</c:v>
+                  <c:v>93625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9621618764424138</c:v>
+                  <c:v>187250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14559931881752344</c:v>
+                  <c:v>280875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.027943935593779</c:v>
+                  <c:v>374500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Seconda query'!$M$7:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.17732188761865944</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12846807114502382</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2602373844133683</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0042889797319967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DC7C-4A77-B622-B8248E95FA0C}"/>
+              <c16:uniqueId val="{00000002-421F-4A61-8DE2-99F5D5953340}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -17120,16 +17495,487 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>11205</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180414</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>582705</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>46505</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{704644E7-10C7-47A8-9EBE-D9669D6C5ABF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4801</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{941CE71C-BE8C-4E11-9623-3FB5F546317B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1680</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>183777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>573180</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>59392</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5F283BA-1EA5-4B2E-8896-F98BE41AB1CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>884464</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDB12FC0-2445-41DD-9439-09E543EBE98E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>582705</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>46505</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC78E0AF-4509-41C9-A590-2701A0F0491F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4801</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A41E81D8-F5CD-4FCF-85DB-FAA5B8BDE1A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1680</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>183777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>573180</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>59392</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF8B1053-7DBB-4E9D-B41B-633E86216F13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>884464</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8E6EB6E-DB6F-497A-BF5D-57A6DC5630E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>582705</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>46505</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{505D26E2-0406-47B3-A23B-EE105EB69FBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18328EDC-F733-46FD-89BD-DBFF4A69A61F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1680</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>183777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>573180</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>59392</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66802AB3-A8EE-4C33-9029-89D937D28DC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03861681-68B0-4CFD-BC8F-B8748E83EBD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>582705</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>46505</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17197,15 +18043,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>11205</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
+      <xdr:colOff>1680</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>183777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>582705</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>21292</xdr:rowOff>
+      <xdr:colOff>573180</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>59392</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17251,477 +18097,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F135F50-DD76-4F21-B09F-703606ABEE38}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>11205</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180414</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>582705</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65C30C2-D8A3-4058-8BA8-594D8F84B0E1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>4801</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>3519</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>13608</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>81642</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794F1900-DD13-4B0F-A28C-E88B3413DF4B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>11205</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>582705</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>21292</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Grafico 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B48BA30-AF7C-4C60-9A44-37445B2B2B19}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>884464</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Grafico 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BD59B54-9D9F-4E8C-8C97-FA2E544D3AA8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>11205</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180414</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>582705</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E213751B-E26D-4070-AA39-8C01A6ED504F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>4801</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>3519</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>13608</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>81642</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F65865A-E176-409C-9028-30C6242DEEAE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>11205</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>582705</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>21292</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Grafico 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E3CF31B-D890-4518-8F76-E4FAA72C8415}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>884464</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Grafico 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC4942CC-7F92-4053-A51C-CB2818AD472C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>11205</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180414</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>582705</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01AB66E5-90AB-4857-912D-C4410AE00ECB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>4801</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>3519</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>13608</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>81642</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0F8EF4D-057B-4838-89C2-284C46277B37}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>11205</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>582705</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>21292</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Grafico 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6173F277-389D-4382-B16A-D9D64C26BA22}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>884464</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Grafico 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61A0EA66-8D68-4BEF-A38F-5D9C31F81B56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18040,11 +18415,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF771143-2B95-45ED-BD0A-35F9439E8DBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DEDCC2-000C-4D98-82A5-B00B6F80F646}">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18056,62 +18431,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10"/>
-      <c r="M1" s="6" t="s">
+      <c r="F1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="M1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="S1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="10"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="S1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="12"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="13"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="15"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>0.25</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>0.5</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>0.75</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>1</v>
       </c>
       <c r="F3" s="5">
@@ -18126,996 +18501,996 @@
       <c r="I3" s="5">
         <v>1</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="8">
         <f>$P$3*0.25</f>
         <v>93625</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="8">
         <f>$P$3*0.5</f>
         <v>187250</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="8">
         <f>$P$3*0.75</f>
         <v>280875</v>
       </c>
-      <c r="P3" s="15">
+      <c r="P3" s="8">
         <v>374500</v>
       </c>
-      <c r="S3" s="14">
+      <c r="S3" s="7">
         <f>M$3</f>
         <v>93625</v>
       </c>
-      <c r="T3" s="14">
+      <c r="T3" s="7">
         <f>N$3</f>
         <v>187250</v>
       </c>
-      <c r="U3" s="14">
+      <c r="U3" s="7">
         <f>O$3</f>
         <v>280875</v>
       </c>
-      <c r="V3" s="14">
+      <c r="V3" s="7">
         <f>P$3</f>
         <v>374500</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="H4" s="2">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="I4" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="M4" s="3">
         <f>A4</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N4" s="3">
         <f>B4</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O4" s="3">
         <f>C4</f>
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="P4" s="3">
         <f>D4</f>
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="S4" s="3">
         <f>F4</f>
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="T4" s="3">
         <f>G4</f>
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="U4" s="3">
         <f>H4</f>
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="V4" s="3">
         <f>I4</f>
-        <v>48</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G5" s="2">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H5" s="2">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I5" s="2">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M5" s="2">
         <f>AVERAGE(A5:A34)</f>
-        <v>6.9666666666666668</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N5" s="2">
         <f>AVERAGE(B5:B34)</f>
-        <v>16.033333333333335</v>
+        <v>1.2333333333333334</v>
       </c>
       <c r="O5" s="2">
         <f>AVERAGE(C5:C34)</f>
-        <v>28.333333333333332</v>
+        <v>2.7</v>
       </c>
       <c r="P5" s="2">
         <f>AVERAGE(D5:D34)</f>
-        <v>28.933333333333334</v>
+        <v>3.6333333333333333</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="S5" s="2">
         <f>AVERAGE(F5:F34)</f>
-        <v>15.1</v>
+        <v>3.3666666666666667</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" ref="T5:V5" si="0">AVERAGE(G5:G34)</f>
-        <v>15.4</v>
+        <v>3.2333333333333334</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>6.1333333333333337</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="0"/>
-        <v>15.633333333333333</v>
+        <v>5.1333333333333337</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G6" s="2">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H6" s="2">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I6" s="2">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="M6" s="2">
         <f>_xlfn.STDEV.P(A5:A34)</f>
-        <v>0.65743609744386744</v>
+        <v>0.3</v>
       </c>
       <c r="N6" s="2">
         <f>_xlfn.STDEV.P(B5:B34)</f>
-        <v>17.459445072001063</v>
+        <v>0.42295258468165065</v>
       </c>
       <c r="O6" s="2">
         <f>_xlfn.STDEV.P(C5:C34)</f>
-        <v>27.025091221965479</v>
+        <v>0.58594652770823152</v>
       </c>
       <c r="P6" s="2">
         <f>_xlfn.STDEV.P(D5:D34)</f>
-        <v>18.473284012925863</v>
+        <v>6.0137804711807989</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="S6" s="2">
         <f>_xlfn.STDEV.P(F5:F34)</f>
-        <v>0.94339811320566114</v>
+        <v>0.75203427817856516</v>
       </c>
       <c r="T6" s="2">
-        <f>_xlfn.STDEV.P(G5:G34)</f>
-        <v>0.91651513899116788</v>
+        <f t="shared" ref="T6:V6" si="1">_xlfn.STDEV.P(G5:G34)</f>
+        <v>0.61553951042064625</v>
       </c>
       <c r="U6" s="2">
-        <f>_xlfn.STDEV.P(H5:H34)</f>
-        <v>0.92195444572928875</v>
+        <f t="shared" si="1"/>
+        <v>1.3097921802925667</v>
       </c>
       <c r="V6" s="2">
-        <f>_xlfn.STDEV.P(I5:I34)</f>
-        <v>0.83599574693229639</v>
+        <f t="shared" si="1"/>
+        <v>1.80246744461277</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2">
-        <v>25</v>
-      </c>
-      <c r="F7" s="2">
-        <v>15</v>
-      </c>
-      <c r="G7" s="2">
-        <v>15</v>
-      </c>
-      <c r="H7" s="2">
-        <v>16</v>
-      </c>
       <c r="I7" s="2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2">
         <f>_xlfn.CONFIDENCE.NORM(0.05, M6, COUNT(A5:A34))</f>
-        <v>0.2352561630829659</v>
+        <v>0.10735164862302939</v>
       </c>
       <c r="N7" s="2">
         <f>_xlfn.CONFIDENCE.NORM(0.05, N6, COUNT(B5:B34))</f>
-        <v>6.2476673750751344</v>
+        <v>0.15134885751648883</v>
       </c>
       <c r="O7" s="2">
         <f>_xlfn.CONFIDENCE.NORM(0.05, O6, COUNT(C5:C34))</f>
-        <v>9.670626989552515</v>
+        <v>0.20967441918139412</v>
       </c>
       <c r="P7" s="2">
         <f>_xlfn.CONFIDENCE.NORM(0.05, P6, COUNT(D5:D34))</f>
-        <v>6.6104583142301454</v>
+        <v>2.1519641601274579</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="2">
         <f>_xlfn.CONFIDENCE.NORM(0.05, S6, COUNT(F5:F34))</f>
-        <v>0.33758447586827683</v>
+        <v>0.26910706527832956</v>
       </c>
       <c r="T7" s="2">
         <f>_xlfn.CONFIDENCE.NORM(0.05, T6, COUNT(G5:G34))</f>
-        <v>0.32796470386222265</v>
+        <v>0.2202639374542292</v>
       </c>
       <c r="U7" s="2">
         <f>_xlfn.CONFIDENCE.NORM(0.05, U6, COUNT(H5:H34))</f>
-        <v>0.32991109901456811</v>
+        <v>0.46869449969319732</v>
       </c>
       <c r="V7" s="2">
         <f>_xlfn.CONFIDENCE.NORM(0.05, V6, COUNT(I5:I34))</f>
-        <v>0.29915173891674296</v>
+        <v>0.64499283922839923</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2">
+        <v>8</v>
+      </c>
+      <c r="I8" s="2">
         <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2">
-        <v>25</v>
-      </c>
-      <c r="F8" s="2">
-        <v>15</v>
-      </c>
-      <c r="G8" s="2">
-        <v>15</v>
-      </c>
-      <c r="H8" s="2">
-        <v>16</v>
-      </c>
-      <c r="I8" s="2">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B9" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G9" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H9" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I9" s="2">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="2">
-        <v>110</v>
-      </c>
-      <c r="C10" s="2">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2">
-        <v>24</v>
-      </c>
-      <c r="F10" s="2">
-        <v>16</v>
-      </c>
-      <c r="G10" s="2">
-        <v>16</v>
-      </c>
-      <c r="H10" s="2">
-        <v>16</v>
-      </c>
       <c r="I10" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="2">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2">
-        <v>20</v>
-      </c>
-      <c r="D11" s="2">
-        <v>23</v>
-      </c>
-      <c r="F11" s="2">
-        <v>14</v>
-      </c>
-      <c r="G11" s="2">
-        <v>16</v>
-      </c>
-      <c r="H11" s="2">
-        <v>15</v>
-      </c>
       <c r="I11" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F12" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G12" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H12" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I12" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G13" s="2">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H13" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I13" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B14" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D14" s="2">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="F14" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G14" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H14" s="2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I14" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B15" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D15" s="2">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F15" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G15" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H15" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I15" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+      <c r="G16" s="2">
+        <v>5</v>
+      </c>
+      <c r="H16" s="2">
         <v>8</v>
       </c>
-      <c r="B16" s="2">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2">
-        <v>19</v>
-      </c>
-      <c r="D16" s="2">
-        <v>24</v>
-      </c>
-      <c r="F16" s="2">
-        <v>14</v>
-      </c>
-      <c r="G16" s="2">
-        <v>15</v>
-      </c>
-      <c r="H16" s="2">
-        <v>15</v>
-      </c>
       <c r="I16" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="D17" s="2">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G17" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H17" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I17" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B18" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C18" s="2">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D18" s="2">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F18" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G18" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H18" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I18" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>4</v>
+      </c>
+      <c r="G19" s="2">
+        <v>4</v>
+      </c>
+      <c r="H19" s="2">
         <v>7</v>
       </c>
-      <c r="B19" s="2">
-        <v>13</v>
-      </c>
-      <c r="C19" s="2">
-        <v>18</v>
-      </c>
-      <c r="D19" s="2">
-        <v>24</v>
-      </c>
-      <c r="F19" s="2">
-        <v>14</v>
-      </c>
-      <c r="G19" s="2">
-        <v>15</v>
-      </c>
-      <c r="H19" s="2">
-        <v>15</v>
-      </c>
       <c r="I19" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B20" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C20" s="2">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="D20" s="2">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="F20" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G20" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H20" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I20" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>4</v>
+      </c>
+      <c r="G21" s="2">
+        <v>3</v>
+      </c>
+      <c r="H21" s="2">
         <v>6</v>
       </c>
-      <c r="B21" s="2">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2">
-        <v>19</v>
-      </c>
-      <c r="D21" s="2">
-        <v>24</v>
-      </c>
-      <c r="F21" s="2">
-        <v>15</v>
-      </c>
-      <c r="G21" s="2">
-        <v>16</v>
-      </c>
-      <c r="H21" s="2">
-        <v>15</v>
-      </c>
       <c r="I21" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>3</v>
+      </c>
+      <c r="G22" s="2">
+        <v>3</v>
+      </c>
+      <c r="H22" s="2">
         <v>6</v>
       </c>
-      <c r="B22" s="2">
-        <v>13</v>
-      </c>
-      <c r="C22" s="2">
-        <v>19</v>
-      </c>
-      <c r="D22" s="2">
-        <v>24</v>
-      </c>
-      <c r="F22" s="2">
-        <v>15</v>
-      </c>
-      <c r="G22" s="2">
-        <v>15</v>
-      </c>
-      <c r="H22" s="2">
-        <v>15</v>
-      </c>
       <c r="I22" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B23" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D23" s="2">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="F23" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G23" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H23" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I23" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B24" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D24" s="2">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F24" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G24" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H24" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I24" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B25" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C25" s="2">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F25" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G25" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H25" s="2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I25" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B26" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C26" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F26" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G26" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H26" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I26" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B27" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C27" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D27" s="2">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="F27" s="2">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G27" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H27" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I27" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B28" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C28" s="2">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D28" s="2">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F28" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G28" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H28" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I28" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B29" s="2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C29" s="2">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D29" s="2">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F29" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G29" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H29" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I29" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B30" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C30" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D30" s="2">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F30" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G30" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H30" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I30" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B31" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C31" s="2">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D31" s="2">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F31" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G31" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H31" s="2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I31" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B32" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C32" s="2">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D32" s="2">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F32" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G32" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H32" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I32" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B33" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C33" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D33" s="2">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F33" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G33" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H33" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I33" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B34" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C34" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D34" s="2">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F34" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G34" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H34" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I34" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -19127,19 +19502,16 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="M5:P7 S7:V7 S5 T6:V6" formulaRange="1"/>
-  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A010CA00-C48F-4F33-B88E-FAD5A4F4F765}">
-  <dimension ref="A1:V35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DAEBA7-6E06-45AF-AFB3-A075BB79CD03}">
+  <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19151,1072 +19523,1067 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10"/>
-      <c r="M1" s="6" t="s">
+      <c r="F1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="M1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="S1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="10"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="S1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="12"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="15"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="A3" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="6">
         <v>0.75</v>
       </c>
-      <c r="C3" s="7">
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="G3" s="5">
         <v>0.5</v>
       </c>
-      <c r="D3" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="H3" s="5">
         <v>0.75</v>
       </c>
-      <c r="H3" s="5">
-        <v>0.5</v>
-      </c>
       <c r="I3" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="M3" s="15">
-        <v>395000</v>
-      </c>
-      <c r="N3" s="15">
-        <f>$M$3*0.75</f>
-        <v>296250</v>
-      </c>
-      <c r="O3" s="15">
-        <f>$M$3*0.5</f>
-        <v>197500</v>
-      </c>
-      <c r="P3" s="15">
-        <f>$M$3*0.25</f>
-        <v>98750</v>
-      </c>
-      <c r="S3" s="14">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8">
+        <f>$P$3*0.25</f>
+        <v>93625</v>
+      </c>
+      <c r="N3" s="8">
+        <f>$P$3*0.5</f>
+        <v>187250</v>
+      </c>
+      <c r="O3" s="8">
+        <f>$P$3*0.75</f>
+        <v>280875</v>
+      </c>
+      <c r="P3" s="8">
+        <v>374500</v>
+      </c>
+      <c r="S3" s="7">
         <f>M$3</f>
-        <v>395000</v>
-      </c>
-      <c r="T3" s="14">
-        <f t="shared" ref="T3:V3" si="0">N$3</f>
-        <v>296250</v>
-      </c>
-      <c r="U3" s="14">
-        <f t="shared" si="0"/>
-        <v>197500</v>
-      </c>
-      <c r="V3" s="14">
-        <f t="shared" si="0"/>
-        <v>98750</v>
+        <v>93625</v>
+      </c>
+      <c r="T3" s="7">
+        <f>N$3</f>
+        <v>187250</v>
+      </c>
+      <c r="U3" s="7">
+        <f>O$3</f>
+        <v>280875</v>
+      </c>
+      <c r="V3" s="7">
+        <f>P$3</f>
+        <v>374500</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2">
+        <v>302</v>
+      </c>
+      <c r="D4" s="2">
+        <v>154</v>
+      </c>
+      <c r="F4" s="2">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2">
         <v>15</v>
       </c>
-      <c r="D4" s="2">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2">
-        <v>50</v>
-      </c>
-      <c r="G4" s="2">
-        <v>51</v>
-      </c>
       <c r="H4" s="2">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I4" s="2">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="M4" s="3">
         <f>A4</f>
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="N4" s="3">
         <f>B4</f>
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="O4" s="3">
         <f>C4</f>
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="P4" s="3">
         <f>D4</f>
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="S4" s="3">
         <f>F4</f>
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="T4" s="3">
         <f>G4</f>
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="U4" s="3">
         <f>H4</f>
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="V4" s="3">
         <f>I4</f>
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2">
-        <v>15</v>
+        <v>278</v>
       </c>
       <c r="D5" s="2">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="F5" s="2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I5" s="2">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M5" s="2">
         <f>AVERAGE(A5:A34)</f>
-        <v>11.666666666666666</v>
+        <v>37.533333333333331</v>
       </c>
       <c r="N5" s="2">
         <f>AVERAGE(B5:B34)</f>
-        <v>14.2</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="O5" s="2">
         <f>AVERAGE(C5:C34)</f>
-        <v>15.033333333333333</v>
+        <v>295.36666666666667</v>
       </c>
       <c r="P5" s="2">
         <f>AVERAGE(D5:D34)</f>
-        <v>40.666666666666664</v>
+        <v>254.73333333333332</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="S5" s="2">
         <f>AVERAGE(F5:F34)</f>
-        <v>15.1</v>
+        <v>1.3666666666666667</v>
       </c>
       <c r="T5" s="2">
-        <f>AVERAGE(G5:G34)</f>
-        <v>15.4</v>
+        <f t="shared" ref="T5:V5" si="0">AVERAGE(G5:G34)</f>
+        <v>1.2333333333333334</v>
       </c>
       <c r="U5" s="2">
-        <f>AVERAGE(H5:H34)</f>
-        <v>15.5</v>
+        <f t="shared" si="0"/>
+        <v>2.6666666666666665</v>
       </c>
       <c r="V5" s="2">
-        <f>AVERAGE(I5:I34)</f>
-        <v>15.633333333333333</v>
+        <f t="shared" si="0"/>
+        <v>1.9666666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2">
-        <v>15</v>
+        <v>294</v>
       </c>
       <c r="D6" s="2">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="F6" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H6" s="2">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I6" s="2">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="M6" s="2">
         <f>_xlfn.STDEV.P(A5:A34)</f>
-        <v>23.479541922467074</v>
+        <v>4.2483983910279521</v>
       </c>
       <c r="N6" s="2">
         <f>_xlfn.STDEV.P(B5:B34)</f>
-        <v>22.250692873106971</v>
+        <v>7.4491610265854771</v>
       </c>
       <c r="O6" s="2">
         <f>_xlfn.STDEV.P(C5:C34)</f>
-        <v>0.40688518719112349</v>
+        <v>28.527744779814302</v>
       </c>
       <c r="P6" s="2">
         <f>_xlfn.STDEV.P(D5:D34)</f>
-        <v>61.558283132509651</v>
+        <v>159.29447224837682</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="S6" s="2">
         <f>_xlfn.STDEV.P(F5:F34)</f>
-        <v>0.94339811320566114</v>
+        <v>0.48189440982669868</v>
       </c>
       <c r="T6" s="2">
-        <f>_xlfn.STDEV.P(G5:G34)</f>
-        <v>0.91651513899116788</v>
+        <f t="shared" ref="T6:V6" si="1">_xlfn.STDEV.P(G5:G34)</f>
+        <v>0.42295258468165065</v>
       </c>
       <c r="U6" s="2">
-        <f>_xlfn.STDEV.P(H5:H34)</f>
-        <v>0.92195444572928875</v>
+        <f t="shared" si="1"/>
+        <v>0.90676470058236291</v>
       </c>
       <c r="V6" s="2">
-        <f>_xlfn.STDEV.P(I5:I34)</f>
-        <v>0.83599574693229639</v>
+        <f t="shared" si="1"/>
+        <v>0.65743609744386733</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2">
-        <v>15</v>
+        <v>307</v>
       </c>
       <c r="D7" s="2">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="F7" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G7" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H7" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I7" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2">
         <f>_xlfn.CONFIDENCE.NORM(0.05, M6, COUNT(A5:A34))</f>
-        <v>8.4018917809679117</v>
+        <v>1.5202419042809208</v>
       </c>
       <c r="N7" s="2">
         <f>_xlfn.CONFIDENCE.NORM(0.05, N6, COUNT(B5:B34))</f>
-        <v>7.9621618764424138</v>
+        <v>2.6655990568745636</v>
       </c>
       <c r="O7" s="2">
         <f>_xlfn.CONFIDENCE.NORM(0.05, O6, COUNT(C5:C34))</f>
-        <v>0.14559931881752344</v>
+        <v>10.208334778700287</v>
       </c>
       <c r="P7" s="2">
         <f>_xlfn.CONFIDENCE.NORM(0.05, P6, COUNT(D5:D34))</f>
-        <v>22.027943935593779</v>
+        <v>57.001747374662187</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="2">
         <f>_xlfn.CONFIDENCE.NORM(0.05, S6, COUNT(F5:F34))</f>
-        <v>0.33758447586827683</v>
+        <v>0.17244053119039293</v>
       </c>
       <c r="T7" s="2">
         <f>_xlfn.CONFIDENCE.NORM(0.05, T6, COUNT(G5:G34))</f>
-        <v>0.32796470386222265</v>
+        <v>0.15134885751648883</v>
       </c>
       <c r="U7" s="2">
         <f>_xlfn.CONFIDENCE.NORM(0.05, U6, COUNT(H5:H34))</f>
-        <v>0.32991109901456811</v>
+        <v>0.32447561840228095</v>
       </c>
       <c r="V7" s="2">
         <f>_xlfn.CONFIDENCE.NORM(0.05, V6, COUNT(I5:I34))</f>
-        <v>0.29915173891674296</v>
+        <v>0.23525616308296587</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
+        <v>41</v>
+      </c>
+      <c r="B8" s="2">
+        <v>76</v>
+      </c>
+      <c r="C8" s="2">
+        <v>318</v>
+      </c>
+      <c r="D8" s="2">
+        <v>182</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2">
-        <v>226</v>
-      </c>
-      <c r="F8" s="2">
-        <v>15</v>
-      </c>
-      <c r="G8" s="2">
-        <v>15</v>
-      </c>
-      <c r="H8" s="2">
-        <v>16</v>
-      </c>
       <c r="I8" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2">
-        <v>15</v>
+        <v>319</v>
       </c>
       <c r="D9" s="2">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="F9" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H9" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I9" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2">
-        <v>15</v>
+        <v>270</v>
       </c>
       <c r="D10" s="2">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="F10" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G10" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H10" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I10" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="D11" s="2">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="F11" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G11" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H11" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I11" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B12" s="2">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="C12" s="2">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="D12" s="2">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="F12" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H12" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I12" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2">
-        <v>15</v>
+        <v>275</v>
       </c>
       <c r="D13" s="2">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="F13" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H13" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I13" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2">
-        <v>16</v>
+        <v>291</v>
       </c>
       <c r="D14" s="2">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="F14" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G14" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H14" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I14" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C15" s="2">
-        <v>15</v>
+        <v>319</v>
       </c>
       <c r="D15" s="2">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="F15" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G15" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I15" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="C16" s="2">
-        <v>15</v>
+        <v>323</v>
       </c>
       <c r="D16" s="2">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="F16" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G16" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H16" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I16" s="2">
-        <v>15</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C17" s="2">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="D17" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="F17" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G17" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H17" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I17" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="C18" s="2">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="D18" s="2">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="F18" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G18" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H18" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I18" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="C19" s="2">
-        <v>15</v>
+        <v>346</v>
       </c>
       <c r="D19" s="2">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="F19" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G19" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H19" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I19" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2">
-        <v>15</v>
+        <v>336</v>
       </c>
       <c r="D20" s="2">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="F20" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H20" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I20" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="C21" s="2">
-        <v>15</v>
+        <v>342</v>
       </c>
       <c r="D21" s="2">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="F21" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G21" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H21" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I21" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="C22" s="2">
-        <v>15</v>
+        <v>280</v>
       </c>
       <c r="D22" s="2">
-        <v>21</v>
+        <v>164</v>
       </c>
       <c r="F22" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G22" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H22" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I22" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="C23" s="2">
-        <v>15</v>
+        <v>305</v>
       </c>
       <c r="D23" s="2">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="F23" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G23" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H23" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I23" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="C24" s="2">
-        <v>15</v>
+        <v>273</v>
       </c>
       <c r="D24" s="2">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="F24" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G24" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H24" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I24" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="C25" s="2">
-        <v>15</v>
+        <v>285</v>
       </c>
       <c r="D25" s="2">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="F25" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G25" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H25" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I25" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c r="D26" s="2">
-        <v>20</v>
+        <v>246</v>
       </c>
       <c r="F26" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G26" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H26" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I26" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="C27" s="2">
-        <v>14</v>
+        <v>288</v>
       </c>
       <c r="D27" s="2">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="F27" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G27" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H27" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I27" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="C28" s="2">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="D28" s="2">
-        <v>225</v>
+        <v>453</v>
       </c>
       <c r="F28" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G28" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H28" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I28" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2">
-        <v>15</v>
+        <v>312</v>
       </c>
       <c r="D29" s="2">
-        <v>20</v>
+        <v>518</v>
       </c>
       <c r="F29" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G29" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H29" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I29" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2">
-        <v>16</v>
+        <v>340</v>
       </c>
       <c r="D30" s="2">
-        <v>22</v>
+        <v>433</v>
       </c>
       <c r="F30" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G30" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H30" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I30" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B31" s="2">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C31" s="2">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="D31" s="2">
-        <v>20</v>
+        <v>474</v>
       </c>
       <c r="F31" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G31" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H31" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I31" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C32" s="2">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c r="D32" s="2">
-        <v>20</v>
+        <v>615</v>
       </c>
       <c r="F32" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G32" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H32" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I32" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2">
-        <v>15</v>
+        <v>329</v>
       </c>
       <c r="D33" s="2">
-        <v>20</v>
+        <v>573</v>
       </c>
       <c r="F33" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G33" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H33" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I33" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="C34" s="2">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c r="D34" s="2">
-        <v>20</v>
+        <v>654</v>
       </c>
       <c r="F34" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G34" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H34" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I34" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -20232,11 +20599,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CC7D8F-3FF9-46F6-9702-154326F35A51}">
-  <dimension ref="A1:V35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B1859A-0F8A-45DC-973D-865F7E0986A8}">
+  <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q49" sqref="Q49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20248,1072 +20615,1070 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10"/>
-      <c r="M1" s="6" t="s">
+      <c r="F1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="M1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="S1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="10"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="S1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="12"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="15"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="A3" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="6">
         <v>0.75</v>
       </c>
-      <c r="C3" s="7">
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="G3" s="5">
         <v>0.5</v>
       </c>
-      <c r="D3" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="H3" s="5">
         <v>0.75</v>
       </c>
-      <c r="H3" s="5">
-        <v>0.5</v>
-      </c>
       <c r="I3" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="M3" s="15">
-        <v>395000</v>
-      </c>
-      <c r="N3" s="15">
-        <f>$M$3*0.75</f>
-        <v>296250</v>
-      </c>
-      <c r="O3" s="15">
-        <f>$M$3*0.5</f>
-        <v>197500</v>
-      </c>
-      <c r="P3" s="15">
-        <f>$M$3*0.25</f>
-        <v>98750</v>
-      </c>
-      <c r="S3" s="14">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8">
+        <f>$P$3*0.25</f>
+        <v>93625</v>
+      </c>
+      <c r="N3" s="8">
+        <f>$P$3*0.5</f>
+        <v>187250</v>
+      </c>
+      <c r="O3" s="8">
+        <f>$P$3*0.75</f>
+        <v>280875</v>
+      </c>
+      <c r="P3" s="8">
+        <v>374500</v>
+      </c>
+      <c r="S3" s="7">
         <f>M$3</f>
-        <v>395000</v>
-      </c>
-      <c r="T3" s="14">
-        <f t="shared" ref="T3:V3" si="0">N$3</f>
-        <v>296250</v>
-      </c>
-      <c r="U3" s="14">
-        <f t="shared" si="0"/>
-        <v>197500</v>
-      </c>
-      <c r="V3" s="14">
-        <f t="shared" si="0"/>
-        <v>98750</v>
+        <v>93625</v>
+      </c>
+      <c r="T3" s="7">
+        <f>N$3</f>
+        <v>187250</v>
+      </c>
+      <c r="U3" s="7">
+        <f>O$3</f>
+        <v>280875</v>
+      </c>
+      <c r="V3" s="7">
+        <f>P$3</f>
+        <v>374500</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
         <v>15</v>
       </c>
-      <c r="D4" s="2">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2">
-        <v>50</v>
-      </c>
       <c r="G4" s="2">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="H4" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I4" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="M4" s="3">
         <f>A4</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N4" s="3">
         <f>B4</f>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="O4" s="3">
         <f>C4</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="P4" s="3">
         <f>D4</f>
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="S4" s="3">
         <f>F4</f>
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="T4" s="3">
         <f>G4</f>
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="U4" s="3">
         <f>H4</f>
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="V4" s="3">
         <f>I4</f>
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I5" s="2">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M5" s="2">
         <f>AVERAGE(A5:A34)</f>
-        <v>11.666666666666666</v>
+        <v>1.7666666666666666</v>
       </c>
       <c r="N5" s="2">
         <f>AVERAGE(B5:B34)</f>
-        <v>14.2</v>
+        <v>2.0666666666666669</v>
       </c>
       <c r="O5" s="2">
         <f>AVERAGE(C5:C34)</f>
-        <v>15.033333333333333</v>
+        <v>4.7333333333333334</v>
       </c>
       <c r="P5" s="2">
         <f>AVERAGE(D5:D34)</f>
-        <v>40.666666666666664</v>
+        <v>3.7</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="S5" s="2">
         <f>AVERAGE(F5:F34)</f>
-        <v>15.1</v>
+        <v>1.3</v>
       </c>
       <c r="T5" s="2">
-        <f>AVERAGE(G5:G34)</f>
-        <v>15.4</v>
+        <f t="shared" ref="T5:V5" si="0">AVERAGE(G5:G34)</f>
+        <v>1.2333333333333334</v>
       </c>
       <c r="U5" s="2">
-        <f>AVERAGE(H5:H34)</f>
-        <v>15.5</v>
+        <f t="shared" si="0"/>
+        <v>2.5666666666666669</v>
       </c>
       <c r="V5" s="2">
-        <f>AVERAGE(I5:I34)</f>
-        <v>15.633333333333333</v>
+        <f t="shared" si="0"/>
+        <v>2.1333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2">
-        <v>15</v>
-      </c>
       <c r="D6" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G6" s="2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H6" s="2">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I6" s="2">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="M6" s="2">
         <f>_xlfn.STDEV.P(A5:A34)</f>
-        <v>23.479541922467074</v>
+        <v>0.49553562491061687</v>
       </c>
       <c r="N6" s="2">
         <f>_xlfn.STDEV.P(B5:B34)</f>
-        <v>22.250692873106971</v>
+        <v>0.35901098714230029</v>
       </c>
       <c r="O6" s="2">
         <f>_xlfn.STDEV.P(C5:C34)</f>
-        <v>0.40688518719112349</v>
+        <v>0.72724747430904757</v>
       </c>
       <c r="P6" s="2">
         <f>_xlfn.STDEV.P(D5:D34)</f>
-        <v>61.558283132509651</v>
+        <v>2.8065399813055696</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="S6" s="2">
         <f>_xlfn.STDEV.P(F5:F34)</f>
-        <v>0.94339811320566114</v>
+        <v>0.45825756949558399</v>
       </c>
       <c r="T6" s="2">
-        <f>_xlfn.STDEV.P(G5:G34)</f>
-        <v>0.91651513899116788</v>
+        <f t="shared" ref="T6:V6" si="1">_xlfn.STDEV.P(G5:G34)</f>
+        <v>0.42295258468165065</v>
       </c>
       <c r="U6" s="2">
-        <f>_xlfn.STDEV.P(H5:H34)</f>
-        <v>0.92195444572928875</v>
+        <f t="shared" si="1"/>
+        <v>0.55876848714134031</v>
       </c>
       <c r="V6" s="2">
-        <f>_xlfn.STDEV.P(I5:I34)</f>
-        <v>0.83599574693229639</v>
+        <f t="shared" si="1"/>
+        <v>0.76303487615063981</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D7" s="2">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G7" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I7" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2">
         <f>_xlfn.CONFIDENCE.NORM(0.05, M6, COUNT(A5:A34))</f>
-        <v>8.4018917809679117</v>
+        <v>0.17732188761865944</v>
       </c>
       <c r="N7" s="2">
         <f>_xlfn.CONFIDENCE.NORM(0.05, N6, COUNT(B5:B34))</f>
-        <v>7.9621618764424138</v>
+        <v>0.12846807114502382</v>
       </c>
       <c r="O7" s="2">
         <f>_xlfn.CONFIDENCE.NORM(0.05, O6, COUNT(C5:C34))</f>
-        <v>0.14559931881752344</v>
+        <v>0.2602373844133683</v>
       </c>
       <c r="P7" s="2">
         <f>_xlfn.CONFIDENCE.NORM(0.05, P6, COUNT(D5:D34))</f>
-        <v>22.027943935593779</v>
+        <v>1.0042889797319967</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="2">
         <f>_xlfn.CONFIDENCE.NORM(0.05, S6, COUNT(F5:F34))</f>
-        <v>0.33758447586827683</v>
+        <v>0.16398235193111135</v>
       </c>
       <c r="T7" s="2">
         <f>_xlfn.CONFIDENCE.NORM(0.05, T6, COUNT(G5:G34))</f>
-        <v>0.32796470386222265</v>
+        <v>0.15134885751648883</v>
       </c>
       <c r="U7" s="2">
         <f>_xlfn.CONFIDENCE.NORM(0.05, U6, COUNT(H5:H34))</f>
-        <v>0.32991109901456811</v>
+        <v>0.19994906097739629</v>
       </c>
       <c r="V7" s="2">
         <f>_xlfn.CONFIDENCE.NORM(0.05, V6, COUNT(I5:I34))</f>
-        <v>0.29915173891674296</v>
+        <v>0.27304350637213415</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2">
-        <v>15</v>
-      </c>
       <c r="D8" s="2">
-        <v>226</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G8" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I8" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="2">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2">
-        <v>15</v>
-      </c>
       <c r="D9" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G9" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H9" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I9" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H10" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I10" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C11" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H11" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I11" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B12" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F12" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H12" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I12" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B13" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F13" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G13" s="2">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H13" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I13" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B14" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D14" s="2">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F14" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G14" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H14" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I14" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
         <v>5</v>
       </c>
-      <c r="B15" s="2">
-        <v>10</v>
-      </c>
-      <c r="C15" s="2">
-        <v>15</v>
-      </c>
       <c r="D15" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F15" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I15" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B16" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D16" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F16" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G16" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H16" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I16" s="2">
-        <v>15</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
         <v>5</v>
       </c>
-      <c r="B17" s="2">
-        <v>10</v>
-      </c>
-      <c r="C17" s="2">
-        <v>15</v>
-      </c>
       <c r="D17" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F17" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G17" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H17" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I17" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C18" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D18" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F18" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G18" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H18" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I18" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="B19" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C19" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D19" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F19" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G19" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H19" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I19" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
         <v>5</v>
       </c>
-      <c r="B20" s="2">
-        <v>10</v>
-      </c>
-      <c r="C20" s="2">
-        <v>15</v>
-      </c>
       <c r="D20" s="2">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F20" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H20" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I20" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B21" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C21" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D21" s="2">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F21" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G21" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H21" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I21" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B22" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C22" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D22" s="2">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F22" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G22" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H22" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I22" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B23" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D23" s="2">
-        <v>225</v>
+        <v>2</v>
       </c>
       <c r="F23" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G23" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H23" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I23" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2">
         <v>5</v>
       </c>
-      <c r="B24" s="2">
-        <v>11</v>
-      </c>
-      <c r="C24" s="2">
-        <v>15</v>
-      </c>
       <c r="D24" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F24" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G24" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H24" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I24" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B25" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C25" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F25" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G25" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H25" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I25" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2">
         <v>5</v>
       </c>
-      <c r="B26" s="2">
-        <v>10</v>
-      </c>
-      <c r="C26" s="2">
-        <v>15</v>
-      </c>
       <c r="D26" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F26" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G26" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H26" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I26" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B27" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C27" s="2">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F27" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G27" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H27" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I27" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B28" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C28" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D28" s="2">
-        <v>225</v>
+        <v>3</v>
       </c>
       <c r="F28" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G28" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H28" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I28" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="B29" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C29" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D29" s="2">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F29" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G29" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H29" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I29" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2">
         <v>6</v>
       </c>
-      <c r="B30" s="2">
-        <v>134</v>
-      </c>
-      <c r="C30" s="2">
-        <v>16</v>
-      </c>
-      <c r="D30" s="2">
-        <v>22</v>
-      </c>
       <c r="F30" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G30" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H30" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I30" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B31" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C31" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D31" s="2">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F31" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G31" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H31" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I31" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B32" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C32" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D32" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F32" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G32" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H32" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I32" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B33" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C33" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D33" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F33" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G33" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H33" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I33" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B34" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C34" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D34" s="2">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F34" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G34" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H34" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I34" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
+    <row r="50" spans="32:32" x14ac:dyDescent="0.25">
+      <c r="AF50" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -21324,16 +21689,19 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="S5:V7 M5:P7" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC66DA2-F12C-4015-B37E-3AB6DA0F42B2}">
-  <dimension ref="A1:V35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF771143-2B95-45ED-BD0A-35F9439E8DBA}">
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21345,1072 +21713,1067 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10"/>
-      <c r="M1" s="6" t="s">
+      <c r="F1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="M1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="S1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="10"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="S1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="12"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="15"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="A3" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="6">
         <v>0.75</v>
       </c>
-      <c r="C3" s="7">
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="G3" s="5">
         <v>0.5</v>
       </c>
-      <c r="D3" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="H3" s="5">
         <v>0.75</v>
       </c>
-      <c r="H3" s="5">
-        <v>0.5</v>
-      </c>
       <c r="I3" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="M3" s="15">
-        <v>395000</v>
-      </c>
-      <c r="N3" s="15">
-        <f>$M$3*0.75</f>
-        <v>296250</v>
-      </c>
-      <c r="O3" s="15">
-        <f>$M$3*0.5</f>
-        <v>197500</v>
-      </c>
-      <c r="P3" s="15">
-        <f>$M$3*0.25</f>
-        <v>98750</v>
-      </c>
-      <c r="S3" s="14">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8">
+        <f>$P$3*0.25</f>
+        <v>93625</v>
+      </c>
+      <c r="N3" s="8">
+        <f>$P$3*0.5</f>
+        <v>187250</v>
+      </c>
+      <c r="O3" s="8">
+        <f>$P$3*0.75</f>
+        <v>280875</v>
+      </c>
+      <c r="P3" s="8">
+        <v>374500</v>
+      </c>
+      <c r="S3" s="7">
         <f>M$3</f>
-        <v>395000</v>
-      </c>
-      <c r="T3" s="14">
-        <f t="shared" ref="T3:V3" si="0">N$3</f>
-        <v>296250</v>
-      </c>
-      <c r="U3" s="14">
-        <f t="shared" si="0"/>
-        <v>197500</v>
-      </c>
-      <c r="V3" s="14">
-        <f t="shared" si="0"/>
-        <v>98750</v>
+        <v>93625</v>
+      </c>
+      <c r="T3" s="7">
+        <f>N$3</f>
+        <v>187250</v>
+      </c>
+      <c r="U3" s="7">
+        <f>O$3</f>
+        <v>280875</v>
+      </c>
+      <c r="V3" s="7">
+        <f>P$3</f>
+        <v>374500</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2">
         <v>50</v>
       </c>
-      <c r="G4" s="2">
-        <v>51</v>
-      </c>
-      <c r="H4" s="2">
-        <v>51</v>
-      </c>
       <c r="I4" s="2">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="M4" s="3">
         <f>A4</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N4" s="3">
         <f>B4</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O4" s="3">
         <f>C4</f>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="P4" s="3">
         <f>D4</f>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="S4" s="3">
         <f>F4</f>
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="T4" s="3">
         <f>G4</f>
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="U4" s="3">
         <f>H4</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V4" s="3">
         <f>I4</f>
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2">
-        <v>19</v>
-      </c>
-      <c r="G5" s="2">
-        <v>18</v>
-      </c>
-      <c r="H5" s="2">
-        <v>19</v>
-      </c>
       <c r="I5" s="2">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M5" s="2">
         <f>AVERAGE(A5:A34)</f>
-        <v>11.666666666666666</v>
+        <v>1.2666666666666666</v>
       </c>
       <c r="N5" s="2">
         <f>AVERAGE(B5:B34)</f>
-        <v>14.2</v>
+        <v>1.5333333333333334</v>
       </c>
       <c r="O5" s="2">
         <f>AVERAGE(C5:C34)</f>
-        <v>15.033333333333333</v>
+        <v>3.3666666666666667</v>
       </c>
       <c r="P5" s="2">
         <f>AVERAGE(D5:D34)</f>
-        <v>40.666666666666664</v>
+        <v>2.2333333333333334</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="S5" s="2">
         <f>AVERAGE(F5:F34)</f>
-        <v>15.1</v>
+        <v>1.3</v>
       </c>
       <c r="T5" s="2">
-        <f>AVERAGE(G5:G34)</f>
-        <v>15.4</v>
+        <f t="shared" ref="T5:V5" si="0">AVERAGE(G5:G34)</f>
+        <v>1.2666666666666666</v>
       </c>
       <c r="U5" s="2">
-        <f>AVERAGE(H5:H34)</f>
-        <v>15.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7666666666666666</v>
       </c>
       <c r="V5" s="2">
-        <f>AVERAGE(I5:I34)</f>
-        <v>15.633333333333333</v>
+        <f t="shared" si="0"/>
+        <v>2.3333333333333335</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G6" s="2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H6" s="2">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I6" s="2">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="M6" s="2">
         <f>_xlfn.STDEV.P(A5:A34)</f>
-        <v>23.479541922467074</v>
+        <v>0.44221663871405331</v>
       </c>
       <c r="N6" s="2">
         <f>_xlfn.STDEV.P(B5:B34)</f>
-        <v>22.250692873106971</v>
+        <v>0.49888765156985887</v>
       </c>
       <c r="O6" s="2">
         <f>_xlfn.STDEV.P(C5:C34)</f>
-        <v>0.40688518719112349</v>
+        <v>0.70632067001390297</v>
       </c>
       <c r="P6" s="2">
         <f>_xlfn.STDEV.P(D5:D34)</f>
-        <v>61.558283132509651</v>
+        <v>1.3337499349161706</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="S6" s="2">
         <f>_xlfn.STDEV.P(F5:F34)</f>
-        <v>0.94339811320566114</v>
+        <v>0.45825756949558399</v>
       </c>
       <c r="T6" s="2">
-        <f>_xlfn.STDEV.P(G5:G34)</f>
-        <v>0.91651513899116788</v>
+        <f t="shared" ref="T6:V6" si="1">_xlfn.STDEV.P(G5:G34)</f>
+        <v>0.44221663871405331</v>
       </c>
       <c r="U6" s="2">
-        <f>_xlfn.STDEV.P(H5:H34)</f>
-        <v>0.92195444572928875</v>
+        <f t="shared" si="1"/>
+        <v>0.88254681965824844</v>
       </c>
       <c r="V6" s="2">
-        <f>_xlfn.STDEV.P(I5:I34)</f>
-        <v>0.83599574693229639</v>
+        <f t="shared" si="1"/>
+        <v>0.8692269873603532</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2">
         <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2">
-        <v>15</v>
-      </c>
-      <c r="G7" s="2">
-        <v>15</v>
-      </c>
-      <c r="H7" s="2">
-        <v>16</v>
-      </c>
-      <c r="I7" s="2">
-        <v>16</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2">
         <f>_xlfn.CONFIDENCE.NORM(0.05, M6, COUNT(A5:A34))</f>
-        <v>8.4018917809679117</v>
+        <v>0.15824228404829396</v>
       </c>
       <c r="N7" s="2">
         <f>_xlfn.CONFIDENCE.NORM(0.05, N6, COUNT(B5:B34))</f>
-        <v>7.9621618764424138</v>
+        <v>0.17852137291231937</v>
       </c>
       <c r="O7" s="2">
         <f>_xlfn.CONFIDENCE.NORM(0.05, O6, COUNT(C5:C34))</f>
-        <v>0.14559931881752344</v>
+        <v>0.25274896127505075</v>
       </c>
       <c r="P7" s="2">
         <f>_xlfn.CONFIDENCE.NORM(0.05, P6, COUNT(D5:D34))</f>
-        <v>22.027943935593779</v>
+        <v>0.47726751454703026</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="2">
         <f>_xlfn.CONFIDENCE.NORM(0.05, S6, COUNT(F5:F34))</f>
-        <v>0.33758447586827683</v>
+        <v>0.16398235193111135</v>
       </c>
       <c r="T7" s="2">
         <f>_xlfn.CONFIDENCE.NORM(0.05, T6, COUNT(G5:G34))</f>
-        <v>0.32796470386222265</v>
+        <v>0.15824228404829396</v>
       </c>
       <c r="U7" s="2">
         <f>_xlfn.CONFIDENCE.NORM(0.05, U6, COUNT(H5:H34))</f>
-        <v>0.32991109901456811</v>
+        <v>0.31580952025774794</v>
       </c>
       <c r="V7" s="2">
         <f>_xlfn.CONFIDENCE.NORM(0.05, V6, COUNT(I5:I34))</f>
-        <v>0.29915173891674296</v>
+        <v>0.3110431670692102</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2">
-        <v>226</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G8" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I8" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B9" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G9" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H9" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I9" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D10" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H10" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I10" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D11" s="2">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G11" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H11" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I11" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B12" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F12" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H12" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I12" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F13" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H13" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I13" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B14" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D14" s="2">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F14" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H14" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I14" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B15" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D15" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F15" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I15" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B16" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C16" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D16" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F16" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G16" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H16" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I16" s="2">
-        <v>15</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D17" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F17" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G17" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H17" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I17" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B18" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C18" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D18" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F18" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G18" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H18" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I18" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="B19" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D19" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F19" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G19" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H19" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I19" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2">
         <v>5</v>
       </c>
-      <c r="B20" s="2">
-        <v>10</v>
-      </c>
-      <c r="C20" s="2">
-        <v>15</v>
-      </c>
       <c r="D20" s="2">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F20" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H20" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I20" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B21" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C21" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D21" s="2">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F21" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G21" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H21" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I21" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B22" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C22" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D22" s="2">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F22" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G22" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H22" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I22" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B23" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>225</v>
+        <v>2</v>
       </c>
       <c r="F23" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G23" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H23" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I23" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B24" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D24" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F24" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G24" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H24" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I24" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B25" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C25" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F25" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G25" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H25" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I25" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B26" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C26" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F26" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G26" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H26" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I26" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B27" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C27" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D27" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F27" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G27" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H27" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I27" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B28" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C28" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D28" s="2">
-        <v>225</v>
+        <v>2</v>
       </c>
       <c r="F28" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G28" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H28" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I28" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="B29" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C29" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D29" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F29" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G29" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H29" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I29" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B30" s="2">
-        <v>134</v>
+        <v>1</v>
       </c>
       <c r="C30" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D30" s="2">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F30" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G30" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H30" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I30" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B31" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C31" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D31" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F31" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G31" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H31" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I31" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B32" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C32" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D32" s="2">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F32" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G32" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H32" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I32" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B33" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C33" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D33" s="2">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F33" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G33" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H33" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I33" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2">
         <v>6</v>
       </c>
-      <c r="B34" s="2">
-        <v>10</v>
-      </c>
-      <c r="C34" s="2">
-        <v>15</v>
-      </c>
-      <c r="D34" s="2">
-        <v>20</v>
-      </c>
       <c r="F34" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G34" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H34" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I34" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -22421,6 +22784,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="M5:P7 S7:V7 S5 S6:V6 T5:V5" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>